--- a/subidas/productos.xlsx
+++ b/subidas/productos.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_FDE6696646C5F8695C175DFEE82A4C832C4A5702" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0727CE30-B99D-453E-91FD-124064424175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -41,10 +54,10 @@
     <t>Precio Genérico</t>
   </si>
   <si>
-    <t>dasd</t>
-  </si>
-  <si>
-    <t>sss</t>
+    <t>n7454</t>
+  </si>
+  <si>
+    <t>sssff</t>
   </si>
   <si>
     <t>888</t>
@@ -54,6 +67,12 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>ppdasd</t>
+  </si>
+  <si>
+    <t>ooosss</t>
   </si>
 </sst>
 </file>
@@ -430,11 +449,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -473,10 +500,10 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>888</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -485,13 +512,39 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>7457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I1 I3 F2:I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/subidas/productos.xlsx
+++ b/subidas/productos.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="6Cb7cNUdG2uR9EtC0CcUumK9rlmZ/8OZqKDVjqOAE+g="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="8gZSqOJAV5/8QrUmYT5Zr826qfYx4sbNVYua71QEVEc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -42,34 +42,385 @@
     <t>Precio Genérico</t>
   </si>
   <si>
-    <t>ESTUCHE ASEO SARO ROSA</t>
-  </si>
-  <si>
-    <t>sssff</t>
-  </si>
-  <si>
-    <t>S0901R</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CADENA CHUPETE LUNAS Y ESTRELLAS CELESTE</t>
-  </si>
-  <si>
-    <t>ooosss</t>
-  </si>
-  <si>
-    <t>03144C</t>
+    <t>CUNA VIAJE MICKEY</t>
+  </si>
+  <si>
+    <t>PLASTIMYR</t>
+  </si>
+  <si>
+    <t>8400005984305</t>
+  </si>
+  <si>
+    <t>P843M</t>
+  </si>
+  <si>
+    <t>39.95</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>CUNA VIAJE OSO BEIGE CAM</t>
+  </si>
+  <si>
+    <t>CAM ITALIA</t>
+  </si>
+  <si>
+    <t>8005549131170</t>
+  </si>
+  <si>
+    <t>CL11786</t>
+  </si>
+  <si>
+    <t>44.73</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE BABY ARDILLA AZUL</t>
+  </si>
+  <si>
+    <t>HAPPY WAY</t>
+  </si>
+  <si>
+    <t>8435439700177</t>
+  </si>
+  <si>
+    <t>H3001</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE BABY ARDILLA ROSA</t>
+  </si>
+  <si>
+    <t>8435439700160</t>
+  </si>
+  <si>
+    <t>H3002</t>
+  </si>
+  <si>
+    <t>CUNA VIAJE ROJA 2 ALTURAS TOYS WILDLIFE</t>
+  </si>
+  <si>
+    <t>JANE</t>
+  </si>
+  <si>
+    <t>8420421048467</t>
+  </si>
+  <si>
+    <t>J6836S40</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE JANE FUCSIA SPRING</t>
+  </si>
+  <si>
+    <t>8430488045026</t>
+  </si>
+  <si>
+    <t>J876206</t>
+  </si>
+  <si>
+    <t>47.8</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>CUNA VIAJE COMPLET BEIGE/MARRON</t>
+  </si>
+  <si>
+    <t>MS INNOVACIONES</t>
+  </si>
+  <si>
+    <t>8436046386556</t>
+  </si>
+  <si>
+    <t>MS630215</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>CUNA VIAJE COMPLET BEIGE AZUL RAYAS</t>
+  </si>
+  <si>
+    <t>8436046386587</t>
+  </si>
+  <si>
+    <t>MS630218</t>
+  </si>
+  <si>
+    <t>CUNA BLANCA OSO ALMOHADA BLANCA</t>
+  </si>
+  <si>
+    <t>QUIM</t>
+  </si>
+  <si>
+    <t>8435439706506</t>
+  </si>
+  <si>
+    <t>Q602</t>
+  </si>
+  <si>
+    <t>89.3</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>CUNA BLANCA OSITO SILUETA GRIS</t>
+  </si>
+  <si>
+    <t>8435439706513</t>
+  </si>
+  <si>
+    <t>Q130</t>
+  </si>
+  <si>
+    <t>83.66</t>
+  </si>
+  <si>
+    <t>CUNA BLANCA JIRAFA</t>
+  </si>
+  <si>
+    <t>8435439706520</t>
+  </si>
+  <si>
+    <t>Q603</t>
+  </si>
+  <si>
+    <t>86.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUNA STAR SIENA </t>
+  </si>
+  <si>
+    <t>8435439706537</t>
+  </si>
+  <si>
+    <t>QSTAR</t>
+  </si>
+  <si>
+    <t>78.96</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE UNIX-MOON</t>
+  </si>
+  <si>
+    <t>8435439715669</t>
+  </si>
+  <si>
+    <t>H9000</t>
+  </si>
+  <si>
+    <t>95.10</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUNA DE VIAJE SENCILLA CLASSIC NEGRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BABYLINE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8435439726498</t>
+  </si>
+  <si>
+    <t>H3501</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE SENCILLA CLASSIC BEIGE</t>
+  </si>
+  <si>
+    <t>9580255692584</t>
+  </si>
+  <si>
+    <t>H3502</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE ROCK BABY</t>
+  </si>
+  <si>
+    <t>8435439716338</t>
+  </si>
+  <si>
+    <t>H3005</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE BUNNY BEIGE</t>
+  </si>
+  <si>
+    <t>8435439700184</t>
+  </si>
+  <si>
+    <t>H3003</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE BEST FRIENDS</t>
+  </si>
+  <si>
+    <t>8435439742979</t>
+  </si>
+  <si>
+    <t>H3004</t>
+  </si>
+  <si>
+    <t>CUNA VIAJE COMPLET PLUS ALUMINIO BEIG ESTAMPADO DIBUJOS</t>
+  </si>
+  <si>
+    <t>8436046383920</t>
+  </si>
+  <si>
+    <t>MS630302</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>CUNA VIAJE COMPLET PLUS MARINO ESTAMPADO DIBUJOS</t>
+  </si>
+  <si>
+    <t>8436046381742</t>
+  </si>
+  <si>
+    <t>MS630301</t>
+  </si>
+  <si>
+    <t>CUNA VIAJE TWO LEVEL + TOYS ELEPHANT</t>
+  </si>
+  <si>
+    <t>8420421048450</t>
+  </si>
+  <si>
+    <t>J6836S39</t>
+  </si>
+  <si>
+    <t>75.9</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE NICO AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8435439720632</t>
+  </si>
+  <si>
+    <t>H3006</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>CUNA VIAJE 2 ALTURAS SAFARI</t>
+  </si>
+  <si>
+    <t>8436046386709</t>
+  </si>
+  <si>
+    <t>MS630219</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE DREAM STAR SMOOTH GRAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8435439735278</t>
+  </si>
+  <si>
+    <t>H30062</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>CUNA DE VIAJE DREAM STAR  DARK GRAY</t>
+  </si>
+  <si>
+    <t>8435439735261</t>
+  </si>
+  <si>
+    <t>H30061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuna Colecho Parque Stories Tuc Tuc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUC TUC </t>
+  </si>
+  <si>
+    <t>8433334896520</t>
+  </si>
+  <si>
+    <t>T12050738</t>
+  </si>
+  <si>
+    <t>106.70</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuna  de Viaje Mimi  &amp; Go Life in the Air </t>
+  </si>
+  <si>
+    <t>TUC TUC</t>
+  </si>
+  <si>
+    <t>8433334383518</t>
+  </si>
+  <si>
+    <t>T12051412</t>
+  </si>
+  <si>
+    <t>15.15</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuna viaje Mimi &amp; go Stories </t>
+  </si>
+  <si>
+    <t>TUC TUC-</t>
+  </si>
+  <si>
+    <t>8433334646286</t>
+  </si>
+  <si>
+    <t>T12050718</t>
+  </si>
+  <si>
+    <t>15.16</t>
+  </si>
+  <si>
+    <t>75.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d.m"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12.0"/>
@@ -97,15 +448,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -316,23 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="2" width="8.56"/>
-    <col customWidth="1" min="3" max="3" width="15.33"/>
-    <col customWidth="1" min="4" max="4" width="8.56"/>
-    <col customWidth="1" min="5" max="5" width="14.89"/>
-    <col customWidth="1" min="6" max="6" width="13.22"/>
-    <col customWidth="1" min="7" max="7" width="13.11"/>
-    <col customWidth="1" min="8" max="8" width="14.0"/>
-    <col customWidth="1" min="9" max="26" width="8.56"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -361,66 +696,733 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>133.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>2548.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.0</v>
       </c>
-      <c r="E2" s="2">
-        <v>8.424568009015E12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45072.0</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>112.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
+      <c r="A3" s="1">
+        <v>4248.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>4287.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4288.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
         <v>1.0</v>
       </c>
-      <c r="E3" s="2">
-        <v>8.470314402005E12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4430.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>4449.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>4579.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>4580.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>4585.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>4586.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>4587.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>4588.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>5117.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>5249.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>5250.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1">
         <v>23.0</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>5252.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>5257.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>5258.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>5420.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
+        <v>5421.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1">
+        <v>5518.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1">
+        <v>5657.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1">
+        <v>6070.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1">
+        <v>6532.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1">
+        <v>6533.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1">
+        <v>7118.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1">
+        <v>7186.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1">
+        <v>7187.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -1393,9 +2395,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.0" right="0.0" top="0.0"/>
-  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>